--- a/tests_debug/test_employees_08_2025.xlsx
+++ b/tests_debug/test_employees_08_2025.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,7 +82,7 @@
     <t>Remarques</t>
   </si>
   <si>
-    <t>Date de Naissance</t>
+    <t>Date de naissance</t>
   </si>
   <si>
     <t>0000000001</t>
@@ -130,18 +130,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0;[Red]-#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +157,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -164,63 +176,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf/>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0;[Red]-#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:W4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W4" displayName="Frame0" name="Frame0" id="1" totalsRowShown="0">
   <autoFilter ref="A1:W4"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Matricule" dataDxfId="0"/>
-    <tableColumn id="2" name="Nom" dataDxfId="0"/>
-    <tableColumn id="3" name="Prénom" dataDxfId="0"/>
-    <tableColumn id="4" name="Email" dataDxfId="0"/>
-    <tableColumn id="5" name="Salaire de base" dataDxfId="1"/>
-    <tableColumn id="6" name="Base heures" dataDxfId="2"/>
-    <tableColumn id="7" name="Heures congés payés" dataDxfId="1"/>
-    <tableColumn id="8" name="Heures absence" dataDxfId="2"/>
-    <tableColumn id="9" name="Type absence" dataDxfId="0"/>
-    <tableColumn id="10" name="Prime" dataDxfId="1"/>
-    <tableColumn id="11" name="Type de prime" dataDxfId="0"/>
-    <tableColumn id="12" name="Heures Sup 125" dataDxfId="2"/>
-    <tableColumn id="13" name="Heures Sup 150" dataDxfId="2"/>
-    <tableColumn id="14" name="Heures jours fériés" dataDxfId="2"/>
-    <tableColumn id="15" name="Heures dimanche" dataDxfId="2"/>
-    <tableColumn id="16" name="Tickets restaurant" dataDxfId="2"/>
-    <tableColumn id="17" name="Avantage logement" dataDxfId="2"/>
-    <tableColumn id="18" name="Avantage transport" dataDxfId="2"/>
-    <tableColumn id="19" name="Pays résidence" dataDxfId="0"/>
-    <tableColumn id="20" name="Taux prélèvement source" dataDxfId="2"/>
-    <tableColumn id="21" name="Date de Sortie" dataDxfId="0"/>
-    <tableColumn id="22" name="Remarques" dataDxfId="0"/>
-    <tableColumn id="23" name="Date de Naissance" dataDxfId="0"/>
+    <tableColumn name="Matricule" id="1"/>
+    <tableColumn name="Nom" id="2"/>
+    <tableColumn name="Prénom" id="3"/>
+    <tableColumn name="Email" id="4"/>
+    <tableColumn name="Salaire de base" id="5"/>
+    <tableColumn name="Base heures" id="6"/>
+    <tableColumn name="Heures congés payés" id="7"/>
+    <tableColumn name="Heures absence" id="8"/>
+    <tableColumn name="Type absence" id="9"/>
+    <tableColumn name="Prime" id="10"/>
+    <tableColumn name="Type de prime" id="11"/>
+    <tableColumn name="Heures Sup 125" id="12"/>
+    <tableColumn name="Heures Sup 150" id="13"/>
+    <tableColumn name="Heures jours fériés" id="14"/>
+    <tableColumn name="Heures dimanche" id="15"/>
+    <tableColumn name="Tickets restaurant" id="16"/>
+    <tableColumn name="Avantage logement" id="17"/>
+    <tableColumn name="Avantage transport" id="18"/>
+    <tableColumn name="Pays résidence" id="19"/>
+    <tableColumn name="Taux prélèvement source" id="20"/>
+    <tableColumn name="Date de Sortie" id="21"/>
+    <tableColumn name="Remarques" id="22"/>
+    <tableColumn name="Date de naissance1" id="23"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -229,10 +256,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -270,69 +297,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,54 +385,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +441,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -422,7 +450,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -439,10 +467,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -471,7 +499,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -484,13 +512,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -508,270 +535,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>3725.64</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>169</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>31.2</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
         <v>240.93</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>3554.02</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>169</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5">
         <v>240.93</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>8534.25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>169</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>23.4</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
